--- a/medicine/Mort/Décès_en_1959/Décès_en_1959.xlsx
+++ b/medicine/Mort/Décès_en_1959/Décès_en_1959.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1959</t>
+          <t>Décès_en_1959</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1959</t>
+          <t>Décès_en_1959</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,15 +540,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Alfred Bolle, peintre suisse (° 16 février 1887).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alfred Bolle, peintre suisse (° 16 février 1887).
 Louis Borgex, peintre, caricaturiste et lithographe français (° 5 juin 1873).
 Léonce Cuvelier, peintre et dessinateur français et canadien (° août 1874).
 Riccardo Fainardi, peintre, sculpteur et architecte d'intérieur italien (° 1865).
 Jean de la Hougue, peintre français (° 11 août 1874).
-Ioan Gr. Periețeanu, homme politique roumain (° 4 mars 1879).
-Janvier
-1er janvier : Antonio López Herranz, joueur et entraîneur de football espagnol (° 4 mai 1913).
+Ioan Gr. Periețeanu, homme politique roumain (° 4 mars 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Antonio López Herranz, joueur et entraîneur de football espagnol (° 4 mai 1913).
 7 janvier : Gustave Louis Jaulmes, peintre français (° 14 avril 1873).
 21 janvier :
 Cecil B. DeMille, cinéaste américain (° 12 août 1881).
@@ -544,9 +595,43 @@
 Lamar Stringfield, compositeur, flûtiste, musicologue et chef d’orchestre américain (° 10 octobre 1897).
 26 janvier : MacGillivray Milne, homme politique américain (° 19 août 1882).
 28 janvier :  Philip Tonge, acteur anglais (° 26 avril 1897).
-31 janvier : Joseph Merlot, homme politique belge francophone (° 14 septembre 1885).
-Février
-3 février : Buddy Holly, Ritchie Valens et The Big Bopper chanteurs américain de rock 'n' roll (° 7 septembre 1936).
+31 janvier : Joseph Merlot, homme politique belge francophone (° 14 septembre 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : Buddy Holly, Ritchie Valens et The Big Bopper chanteurs américain de rock 'n' roll (° 7 septembre 1936).
 4 février : Émile Dorrée, peintre français (° 27 septembre 1883).
 5 février : Curt Sachs, ethnomusicologue et théoricien de la musique germano-américain (° 29 juin 1881).
 7 février : Shirō Fukai, musicien et compositeur japonais de musique classique (° 4 avril 1907).
@@ -562,9 +647,43 @@
 Francis Pélissier, coureur cycliste français (° 13 juin 1894).
 27 février :
 Constantin Budeanu, ingénieur électricien roumain (° 28 février 1886).
-Paul Chabanaud, zoologiste français (° 1876).
-Mars
-1er mars: Charles Lacoste, peintre français (° 3 mars 1870).
+Paul Chabanaud, zoologiste français (° 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars: Charles Lacoste, peintre français (° 3 mars 1870).
 2 mars :
 Eric Blore, acteur anglais (° 23 décembre 1887).
 Yrjö Kilpinen, compositeur finlandais (° 4 février 1892).
@@ -585,9 +704,43 @@
 30 mars :
 Georges Dumoulin, peintre paysagiste et verrier français (° 18 mai 1882).
 Georges Grellet, peintre, graveur et illustrateur français (° 9 octobre 1869).
-Ragnar Malm, coureur cycliste suédois (° 14 mai 1893).
-Avril
-3 avril : René Carrère, peintre, décorateur, acteur et réalisateur français (° 6 janvier 1885).
+Ragnar Malm, coureur cycliste suédois (° 14 mai 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : René Carrère, peintre, décorateur, acteur et réalisateur français (° 6 janvier 1885).
 4 avril : Georges Mouveau, peintre et décorateur français (° 30 septembre 1878).
 9 avril : Frank Lloyd Wright, architecte américain (° 8 juin 1867).
 18 avril :
@@ -599,9 +752,43 @@
 Edwin Ray Guthrie, psychologue et professeur d'université américain (° 6 janvier 1886).
 Park Jung-yang, homme politique et philosophe coréen (° 3 mai 1872).
 27 avril : Gérard Debaets, coureur cycliste belge naturalisé américain (° 17 avril 1899).
-30 avril : Armand Marsick, compositeur belge (° 20 septembre 1877).
-Mai
-3 mai : Renato Birolli, peintre et militant antifasciste italien (° 10 décembre 1905).
+30 avril : Armand Marsick, compositeur belge (° 20 septembre 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Renato Birolli, peintre et militant antifasciste italien (° 10 décembre 1905).
 4 mai : Georges Grente, cardinal français, archevêque du Mans (° 5 mai 1872).
 5 mai : Carlos Saavedra Lamas, homme politique argentin, prix Nobel de la paix en 1936 (° 1er novembre 1878).
 6 mai : William Edmund Ironside, Field Marshal britannique (° 6 mai 1880).
@@ -616,9 +803,43 @@
 John Foster Dulles, diplomate américain, secrétaire d'État du président républicain Dwight D. Eisenhower (° 2 février 1888).
 Gervèse, officier de marine, peintre et illustrateur français (° 21 septembre 1880).
 28 mai : Charles Pélissier, coureur cycliste français (° 20 février 1903).
-31 mai : Gabrielle Vassal, exploratrice franco britannique (° 1880).
-Juin
-1er juin : Sax Rohmer, romancier britannique (° 5 février 1883).
+31 mai : Gabrielle Vassal, exploratrice franco britannique (° 1880).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Sax Rohmer, romancier britannique (° 5 février 1883).
 2 juin : Gabrielle David, peintre française (° 16 juillet 1884).
 7 juin : Édouard Chimot, peintre, illustrateur, graveur et directeur artistique français (° 26 novembre 1880).
 8 juin : Pietro Canonica, sculpteur et peintre italien (° 1er mars 1869).
@@ -629,18 +850,86 @@
 23 juin :
 Céline Aman-Jean, peintre et illustratrice française (° 1897).
 Boris Vian, écrivain et musicien français (° 10 mars 1920).
-28 juin : Max Buset, homme politique belge (° 31 janvier 1896).
-Juillet
-6 juillet : George Grosz, peintre allemand (° 26 juillet 1893).
+28 juin : Max Buset, homme politique belge (° 31 janvier 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6 juillet : George Grosz, peintre allemand (° 26 juillet 1893).
 10 juillet : Marcel Van, rédemptoriste vietnamien (° 15 mars 1928).
 17 juillet :
 Marcel Delaunay, peintre français de l'École de Rouen (° 2 juillet 1876).
 Billie Holiday, chanteuse américaine de jazz et blues (° 7 avril 1915).
 19 juillet : Imre Schlosser-Lakatos, footballeur international hongrois (° 11 octobre 1889).
 28 juillet : Charles Laeser, coureur cycliste suisse (° 12 septembre 1879).
-31 juillet : Cho Bong-am, homme politique sud-coréen (° 1898).
-Août
-2 août : Mary Teresa Norton, femme politique américaine (° 2 août 1959).
+31 juillet : Cho Bong-am, homme politique sud-coréen (° 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Mary Teresa Norton, femme politique américaine (° 2 août 1959).
 6 août : Wanda Landowska, pianiste virtuose d'origine polonaise (° 5 juillet 1879).
 7 août : Armas Launis, compositeur, ethno-musicologue, pédagogue, écrivain et journaliste finlandais (° 22 avril 1884).
 9 août : Emil František Burian, journaliste, compositeur, poète, dramaturge et réalisateur tchécoslovaque (° 11 juin 1904).
@@ -648,9 +937,43 @@
 14 août : Bianca Piccolomini Clementini, fondatrice, vénérable (° 7 avril 1875).
 17 août : Pierre Paulus, peintre belge (° 16 mars 1881).
 18 août : Johan Ankerstjerne, directeur de la photographie danois (° 17 janvier 1886).
-28 août : Bohuslav Martinů, compositeur tchèque (° 8 décembre 1890).
-Septembre
-6 septembre : Edmund Gwenn, acteur britannique (° 26 septembre 1877).
+28 août : Bohuslav Martinů, compositeur tchèque (° 8 décembre 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6 septembre : Edmund Gwenn, acteur britannique (° 26 septembre 1877).
 7 septembre : Maurice Duplessis, avocat et homme politique canadien-français (° 20 avril 1890).
 8 septembre : Antoine de La Rochefoucauld, peintre et collectionneur d'art français (° 10 octobre 1862).
 11 septembre : Charles Picart Le Doux, peintre, graveur, poète et écrivain français (° 12 juillet 1881).
@@ -664,9 +987,43 @@
 Adam Styka, peintre orientaliste polonais, naturalisé français (° 7 avril 1890).
 24 septembre : Wolfgang Paalen, peintre, sculpteur et philosophe autrichien et mexicain (° 22 juillet 1905).
 28 septembre : Rudolf Caracciola, pilote de course automobile allemand puis suisse (° 30 janvier 1901).
-? septembre : Gustav Gottenkieny, footballeur international suisse (° 8 mai 1896).
-Octobre
-1er octobre : Jean de la Hougue, peintre français (° 11 août 1874).
+? septembre : Gustav Gottenkieny, footballeur international suisse (° 8 mai 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Jean de la Hougue, peintre français (° 11 août 1874).
 2 octobre :
 Jean-Pierre Duprey, poète, sculpteur et peintre français (° 1er janvier 1930).
 Samuel Mützner, peintre roumain (° 13 décembre 1884).
@@ -683,9 +1040,43 @@
 25 octobre : Eugène Tamburlini, coureur cycliste français (° 20 décembre 1930).
 28 octobre :
 Camilo Cienfuegos, révolutionnaire cubain (° 6 février 1932).
-Egon Kornauth, chef d'orchestre et compositeur autrichien (° 14 mai 1891).
-Novembre
-2 novembre : John Mathai, homme politique indien (° 10 janvier 1886).
+Egon Kornauth, chef d'orchestre et compositeur autrichien (° 14 mai 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre : John Mathai, homme politique indien (° 10 janvier 1886).
 6 novembre : Ivan Leonidov, architecte, peintre et enseignant russe (° 9 février 1902).
 7 novembre :
 Alberto Guerrero, pianiste chilien naturalisé canadien (° 6 février 1886).
@@ -710,9 +1101,43 @@
 Albert Devèze, homme politique belge (° 6 juin 1881).
 Ludwig Egidius Ronig, peintre allemand (° 27 janvier 1885).
 29 novembre : Jeanne Philippar-Quinet, peintre française (° 17 décembre 1867).
-30 novembre : Jan Wiegers, peintre, aquarelliste, graveur, lithographe et sculpteur néerlandais (° 31 juillet 1893).
-Décembre
-2 décembre : Pierre Forthomme, homme politique belge (° 24 mai 1877).
+30 novembre : Jan Wiegers, peintre, aquarelliste, graveur, lithographe et sculpteur néerlandais (° 31 juillet 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1959</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Pierre Forthomme, homme politique belge (° 24 mai 1877).
 7 décembre : Charlie Hall, acteur britannique (° 19 août 1899).
 12 décembre : Renzo Dalmazzo, militaire italien (° 23 janvier 1886).
 14 décembre :
